--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C656942C-0716-4D2D-B993-B586B273A2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018837D1-0C64-4F71-B2FE-5402A548A54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -138,21 +138,12 @@
     <t>Jorge Tarud</t>
   </si>
   <si>
-    <t>coalición</t>
-  </si>
-  <si>
     <t>Chile Vamos</t>
   </si>
   <si>
     <t>PDD</t>
   </si>
   <si>
-    <t>Convergencia Progresista</t>
-  </si>
-  <si>
-    <t>Unidad para el Cambio</t>
-  </si>
-  <si>
     <t>Ricardo Lagos Weber</t>
   </si>
   <si>
@@ -256,6 +247,12 @@
   </si>
   <si>
     <t>http://carolacanelo.cl/</t>
+  </si>
+  <si>
+    <t>lista</t>
+  </si>
+  <si>
+    <t>Unidad Constituyente</t>
   </si>
 </sst>
 </file>
@@ -641,13 +638,14 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,13 +659,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,12 +698,14 @@
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,10 +720,10 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -754,12 +754,14 @@
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,10 +776,10 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,14 +792,12 @@
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,13 +851,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,13 +871,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,13 +911,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,13 +951,13 @@
         <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,13 +971,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,14 +990,12 @@
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,13 +1006,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,13 +1023,13 @@
         <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,16 +1037,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1056,16 +1054,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,16 +1071,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,20 +1086,24 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{30B04237-26D2-4774-84D0-C85AF0083968}"/>
+  <autoFilter ref="A1:F1" xr:uid="{30B04237-26D2-4774-84D0-C85AF0083968}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" xr:uid="{B3F80884-E051-466F-924C-FD5C4C9E3D67}"/>
     <hyperlink ref="E11" r:id="rId2" xr:uid="{785644EF-D9A3-4767-9066-A800BDA1488C}"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018837D1-0C64-4F71-B2FE-5402A548A54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD616EF-EE50-4CB7-9BFA-D9A304D8C5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -231,9 +231,6 @@
     <t>https://www.elmostrador.cl/noticias/pais/2018/10/11/lagos-weber-aseguro-estar-disponible-para-ser-candidato-presidencial-en-2021/</t>
   </si>
   <si>
-    <t>Paula Narvaéz</t>
-  </si>
-  <si>
     <t>https://www.cooperativa.cl/noticias/pais/politica/presidenciales/montes-suma-a-monsalve-y-narvaez-a-la-carrera-presidencial-ps/2019-08-12/200902.html</t>
   </si>
   <si>
@@ -253,6 +250,21 @@
   </si>
   <si>
     <t>Unidad Constituyente</t>
+  </si>
+  <si>
+    <t>Unidad para el Cambio</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Aldo Valle</t>
+  </si>
+  <si>
+    <t>Manuel Monsalve</t>
+  </si>
+  <si>
+    <t>Paula Narváez</t>
   </si>
 </sst>
 </file>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -679,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>38</v>
@@ -699,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>38</v>
@@ -718,7 +730,9 @@
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>40</v>
       </c>
@@ -755,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>43</v>
@@ -774,7 +788,9 @@
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>44</v>
       </c>
@@ -792,7 +808,9 @@
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
@@ -831,7 +849,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>48</v>
@@ -911,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
@@ -931,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -971,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>58</v>
@@ -990,7 +1008,9 @@
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>59</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>61</v>
@@ -1026,7 +1046,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>62</v>
@@ -1043,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>63</v>
@@ -1054,16 +1074,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,14 +1091,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,16 +1108,50 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD616EF-EE50-4CB7-9BFA-D9A304D8C5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81E007-0CAF-41F0-AF55-86FA67BB76A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -232,12 +232,6 @@
   </si>
   <si>
     <t>https://www.cooperativa.cl/noticias/pais/politica/presidenciales/montes-suma-a-monsalve-y-narvaez-a-la-carrera-presidencial-ps/2019-08-12/200902.html</t>
-  </si>
-  <si>
-    <t>Claudia Pascual</t>
-  </si>
-  <si>
-    <t>https://www.latercera.com/reportajes/noticia/la-carrera-comunista-a-la-moneda/472016/</t>
   </si>
   <si>
     <t>Carola Canelo</t>
@@ -647,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -691,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>38</v>
@@ -711,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>38</v>
@@ -731,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>40</v>
@@ -769,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>43</v>
@@ -789,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>44</v>
@@ -809,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -849,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>48</v>
@@ -929,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
@@ -949,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -989,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>58</v>
@@ -1009,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>59</v>
@@ -1029,7 +1023,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>61</v>
@@ -1046,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>62</v>
@@ -1063,7 +1057,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>63</v>
@@ -1077,10 +1071,10 @@
         <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>66</v>
@@ -1091,16 +1085,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,15 +1102,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1125,32 +1119,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
         <v>64</v>
       </c>
     </row>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81E007-0CAF-41F0-AF55-86FA67BB76A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFBC1D-44CF-45E6-8C3F-E2D8A62E5F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>https://www.latercera.com/politica/noticia/francisco-vidal-ppd-confirma-su-candidatura-presidencial-la-lanzare-despues-del-domingo/IDA64H7QGVGKRLPGYM63G4G5NU/?outputType=amp</t>
   </si>
   <si>
-    <t>https://twitter.com/NoNeutrales/status/1321442913159729152</t>
-  </si>
-  <si>
     <t>https://www.elmostrador.cl/noticias/pais/2018/10/11/lagos-weber-aseguro-estar-disponible-para-ser-candidato-presidencial-en-2021/</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>Paula Narváez</t>
+  </si>
+  <si>
+    <t>https://twitter.com/JorgeTarud/status/1321389697441144832</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>38</v>
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>38</v>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>40</v>
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>43</v>
@@ -783,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>44</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -843,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>48</v>
@@ -923,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -983,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>58</v>
@@ -1003,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>59</v>
@@ -1023,7 +1023,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>61</v>
@@ -1040,10 +1040,10 @@
         <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,10 +1057,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,16 +1068,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,16 +1085,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,16 +1102,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,16 +1119,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1160,8 +1160,9 @@
     <hyperlink ref="F8" r:id="rId20" xr:uid="{FE0E5A46-08E2-49C3-89FE-F6AEB797D697}"/>
     <hyperlink ref="F10" r:id="rId21" xr:uid="{A08A5041-8F9F-4748-8520-1F9E37477626}"/>
     <hyperlink ref="E19" r:id="rId22" xr:uid="{3900061B-4837-41B9-8667-02D1E18546C8}"/>
+    <hyperlink ref="E20" r:id="rId23" xr:uid="{262C6B59-D640-418C-96BF-218BC0DC90BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFBC1D-44CF-45E6-8C3F-E2D8A62E5F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7190F9-9944-4AF1-AA39-E2E12A4ECBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7190F9-9944-4AF1-AA39-E2E12A4ECBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D1D3FC-258F-41A0-865C-8F417CCB81D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>https://twitter.com/JorgeTarud/status/1321389697441144832</t>
+  </si>
+  <si>
+    <t>Mario Desbordes</t>
+  </si>
+  <si>
+    <t>https://www.ex-ante.cl/el-diseno-detras-de-la-candidatura-presidencial-de-desbordes/</t>
+  </si>
+  <si>
+    <t>Sebastián Sichel</t>
+  </si>
+  <si>
+    <t>https://www.ex-ante.cl/sichel-irrumpe-como-candidato-para-las-primarias-presidenciales-de-chile-vamos/</t>
   </si>
 </sst>
 </file>
@@ -641,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,6 +1141,40 @@
       </c>
       <c r="E25" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D1D3FC-258F-41A0-865C-8F417CCB81D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4299A8-5459-4DCC-A119-3879947F9ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Chile Vamos</t>
   </si>
   <si>
-    <t>PDD</t>
-  </si>
-  <si>
     <t>Ricardo Lagos Weber</t>
   </si>
   <si>
@@ -271,6 +268,15 @@
   </si>
   <si>
     <t>https://www.ex-ante.cl/sichel-irrumpe-como-candidato-para-las-primarias-presidenciales-de-chile-vamos/</t>
+  </si>
+  <si>
+    <t>Bernardo Javalquinto</t>
+  </si>
+  <si>
+    <t>https://twitter.com/bjaval5</t>
+  </si>
+  <si>
+    <t>https://www.adnradio.cl/politica/2020/10/29/economista-y-exgerente-de-desaparecida-linea-law-se-lanza-como-candidato-presidencial.html</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,6 +344,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -653,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,13 +684,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,13 +704,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,13 +724,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,13 +744,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,10 +765,10 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,13 +802,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,13 +822,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -838,10 +845,10 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,13 +862,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -878,10 +885,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,10 +905,10 @@
         <v>33</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,10 +925,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,13 +942,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,13 +962,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,10 +985,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,13 +1002,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,13 +1039,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,13 +1059,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,16 +1076,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,16 +1096,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,16 +1116,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1114,16 +1136,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,16 +1156,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>29</v>
@@ -1157,7 +1185,10 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,7 +1196,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>17</v>
@@ -1174,8 +1205,34 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{30B04237-26D2-4774-84D0-C85AF0083968}">
@@ -1207,8 +1264,9 @@
     <hyperlink ref="F10" r:id="rId21" xr:uid="{A08A5041-8F9F-4748-8520-1F9E37477626}"/>
     <hyperlink ref="E19" r:id="rId22" xr:uid="{3900061B-4837-41B9-8667-02D1E18546C8}"/>
     <hyperlink ref="E20" r:id="rId23" xr:uid="{262C6B59-D640-418C-96BF-218BC0DC90BF}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{79DCAD9F-F351-46C3-B6E9-418E9CDC4AC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4299A8-5459-4DCC-A119-3879947F9ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680C0F5-D9A6-4CC8-B579-5773393B1E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -663,14 +663,14 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -701,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>37</v>
@@ -721,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>37</v>
@@ -741,10 +741,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>39</v>
@@ -760,10 +760,10 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
@@ -779,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>42</v>
@@ -799,10 +799,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>43</v>
@@ -819,10 +819,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>44</v>
@@ -839,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
@@ -859,10 +859,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -879,10 +879,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -899,10 +899,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>50</v>
@@ -919,10 +919,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>52</v>
@@ -939,10 +939,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
@@ -959,10 +959,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>55</v>
@@ -979,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>56</v>
@@ -999,10 +999,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>57</v>
@@ -1019,10 +1019,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>58</v>
@@ -1039,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>60</v>
@@ -1059,10 +1059,10 @@
         <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>72</v>
@@ -1079,10 +1079,10 @@
         <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>61</v>
@@ -1099,10 +1099,10 @@
         <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>64</v>
@@ -1119,10 +1119,10 @@
         <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>62</v>
@@ -1139,10 +1139,10 @@
         <v>69</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -1159,10 +1159,10 @@
         <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -1179,10 +1179,10 @@
         <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -1199,10 +1199,10 @@
         <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
@@ -1219,10 +1219,10 @@
         <v>77</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>78</v>
@@ -1235,11 +1235,6 @@
       <c r="A29" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{30B04237-26D2-4774-84D0-C85AF0083968}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" xr:uid="{B3F80884-E051-466F-924C-FD5C4C9E3D67}"/>
     <hyperlink ref="E11" r:id="rId2" xr:uid="{785644EF-D9A3-4767-9066-A800BDA1488C}"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680C0F5-D9A6-4CC8-B579-5773393B1E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9838E15-5457-490D-B9AB-5D9076CF3703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>https://www.adnradio.cl/politica/2020/10/29/economista-y-exgerente-de-desaparecida-linea-law-se-lanza-como-candidato-presidencial.html</t>
+  </si>
+  <si>
+    <t>https://www.publimetro.cl/cl/noticias/2020/11/02/ximena-rincon-candidatura-presidencial.html</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,8 +790,8 @@
       <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
+      <c r="F6" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,8 +1263,9 @@
     <hyperlink ref="E19" r:id="rId22" xr:uid="{3900061B-4837-41B9-8667-02D1E18546C8}"/>
     <hyperlink ref="E20" r:id="rId23" xr:uid="{262C6B59-D640-418C-96BF-218BC0DC90BF}"/>
     <hyperlink ref="F28" r:id="rId24" xr:uid="{79DCAD9F-F351-46C3-B6E9-418E9CDC4AC4}"/>
+    <hyperlink ref="F6" r:id="rId25" xr:uid="{82FD6B96-2D3C-4640-9BD5-DB0355075E71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9838E15-5457-490D-B9AB-5D9076CF3703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DA57B-20BF-4F9A-9508-4EE48C0ED24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>Independiente</t>
-  </si>
-  <si>
-    <t>Aldo Valle</t>
   </si>
   <si>
     <t>Manuel Monsalve</t>
@@ -663,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +788,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>38</v>
@@ -1119,7 +1116,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>66</v>
@@ -1159,16 +1156,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>38</v>
@@ -1179,16 +1176,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>38</v>
@@ -1199,43 +1196,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1262,7 +1239,7 @@
     <hyperlink ref="F10" r:id="rId21" xr:uid="{A08A5041-8F9F-4748-8520-1F9E37477626}"/>
     <hyperlink ref="E19" r:id="rId22" xr:uid="{3900061B-4837-41B9-8667-02D1E18546C8}"/>
     <hyperlink ref="E20" r:id="rId23" xr:uid="{262C6B59-D640-418C-96BF-218BC0DC90BF}"/>
-    <hyperlink ref="F28" r:id="rId24" xr:uid="{79DCAD9F-F351-46C3-B6E9-418E9CDC4AC4}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{79DCAD9F-F351-46C3-B6E9-418E9CDC4AC4}"/>
     <hyperlink ref="F6" r:id="rId25" xr:uid="{82FD6B96-2D3C-4640-9BD5-DB0355075E71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DA57B-20BF-4F9A-9508-4EE48C0ED24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C950B9-8109-4C24-896D-AF4C47663F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>https://www.publimetro.cl/cl/noticias/2020/11/02/ximena-rincon-candidatura-presidencial.html</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/politica/noticia/ximena-rincon-senadora-exministra-y-precandidata-presidencial-dc-soy-mujer-y-de-region-y-esas-cosas-cuentan-hoy/7CGJ4DTZPBG3JPAIBSU5FOZB44/</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -693,7 +696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -713,7 +716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -733,7 +736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -753,7 +756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -771,7 +774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -790,8 +793,14 @@
       <c r="F6" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -811,7 +820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -831,7 +840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -851,7 +860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -871,7 +880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -891,7 +900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -911,7 +920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -931,7 +940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -951,7 +960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -971,7 +980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C950B9-8109-4C24-896D-AF4C47663F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD3BBC3-11EC-4C3D-A752-C6089A33DC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>https://www.latercera.com/politica/noticia/ximena-rincon-senadora-exministra-y-precandidata-presidencial-dc-soy-mujer-y-de-region-y-esas-cosas-cuentan-hoy/7CGJ4DTZPBG3JPAIBSU5FOZB44/</t>
+  </si>
+  <si>
+    <t>Marcelo Díaz</t>
+  </si>
+  <si>
+    <t>Unir</t>
+  </si>
+  <si>
+    <t>Frente Amplio</t>
+  </si>
+  <si>
+    <t>https://www.eldinamo.cl/nacional/2020/11/23/diputado-marcelo-diaz-confirma-candidatura-presidencial-por-el-frente-amplio/</t>
   </si>
 </sst>
 </file>
@@ -665,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1233,24 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD3BBC3-11EC-4C3D-A752-C6089A33DC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26A4CD-2552-48B1-B210-42520EA5FB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -69,9 +69,6 @@
     <t>José Antonio Kast</t>
   </si>
   <si>
-    <t>Republicano</t>
-  </si>
-  <si>
     <t>Ximena Rincón</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>https://www.eldinamo.cl/nacional/2020/11/23/diputado-marcelo-diaz-confirma-candidatura-presidencial-por-el-frente-amplio/</t>
+  </si>
+  <si>
+    <t>Partido Republicano</t>
+  </si>
+  <si>
+    <t>PRep</t>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,16 +699,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,16 +719,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,16 +759,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,15 +778,17 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -817,19 +822,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,19 +842,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,19 +862,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,19 +882,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,19 +902,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -917,19 +922,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,19 +942,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,19 +962,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -977,19 +982,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,19 +1002,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,19 +1022,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,19 +1042,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,19 +1062,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,19 +1082,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,19 +1102,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,19 +1122,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="F22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,19 +1142,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,19 +1162,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,19 +1182,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
       <c r="F25" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,19 +1202,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,19 +1222,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,19 +1242,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
       <c r="F28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26A4CD-2552-48B1-B210-42520EA5FB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF69954-D584-48BB-A09D-079EEFFE35EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
+    <sheet name="pres2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pres2021!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -276,9 +276,6 @@
     <t>https://www.publimetro.cl/cl/noticias/2020/11/02/ximena-rincon-candidatura-presidencial.html</t>
   </si>
   <si>
-    <t>https://www.latercera.com/politica/noticia/ximena-rincon-senadora-exministra-y-precandidata-presidencial-dc-soy-mujer-y-de-region-y-esas-cosas-cuentan-hoy/7CGJ4DTZPBG3JPAIBSU5FOZB44/</t>
-  </si>
-  <si>
     <t>Marcelo Díaz</t>
   </si>
   <si>
@@ -295,6 +292,15 @@
   </si>
   <si>
     <t>PRep</t>
+  </si>
+  <si>
+    <t>David Fernández</t>
+  </si>
+  <si>
+    <t>https://www.theclinic.cl/2020/12/05/los-tres-presidenciables-la-cruzada-de-los-candidatos-improbables/</t>
+  </si>
+  <si>
+    <t>sexo</t>
   </si>
 </sst>
 </file>
@@ -678,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +697,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -710,8 +716,11 @@
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -730,8 +739,11 @@
       <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -750,8 +762,11 @@
       <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -770,8 +785,11 @@
       <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -779,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>40</v>
@@ -790,8 +808,11 @@
       <c r="F5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -810,14 +831,11 @@
       <c r="F6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -836,8 +854,11 @@
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -856,8 +877,11 @@
       <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -876,8 +900,11 @@
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -896,8 +923,11 @@
       <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -916,8 +946,11 @@
       <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -936,8 +969,11 @@
       <c r="F12" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -956,8 +992,11 @@
       <c r="F13" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -976,8 +1015,11 @@
       <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -996,8 +1038,11 @@
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1016,8 +1061,11 @@
       <c r="F16" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1036,8 +1084,11 @@
       <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1056,8 +1107,11 @@
       <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1076,8 +1130,11 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1096,8 +1153,11 @@
       <c r="F20" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1116,8 +1176,11 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1136,8 +1199,11 @@
       <c r="F22" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1156,8 +1222,11 @@
       <c r="F23" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1176,8 +1245,11 @@
       <c r="F24" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1196,8 +1268,11 @@
       <c r="F25" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1216,8 +1291,11 @@
       <c r="F26" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1236,25 +1314,54 @@
       <c r="F27" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>83</v>
-      </c>
       <c r="F28" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salón Balmaceda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF69954-D584-48BB-A09D-079EEFFE35EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58223DAF-058F-4CB4-9154-3D1810857D8B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pres2021!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -301,12 +300,24 @@
   </si>
   <si>
     <t>sexo</t>
+  </si>
+  <si>
+    <t>Carlos Maldonado</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/politica/noticia/radicales-proclaman-a-carlos-maldonado-como-su-candidato-presidencial/CDTWMT6TIVFYRIY32KQZVG3KFE/</t>
+  </si>
+  <si>
+    <t>Álvaro Elizalde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +382,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -683,14 +694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438F79A-8196-4882-A5ED-CC8F7E874E47}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -1364,33 +1375,73 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{B3F80884-E051-466F-924C-FD5C4C9E3D67}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{785644EF-D9A3-4767-9066-A800BDA1488C}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{0DB08701-7106-4DED-A117-4EC63BF35D67}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{8FE9DCF3-F9CD-4675-A181-911A146FB5FF}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{51B9791B-BFC5-4D80-9359-EEECBE3A8A3D}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{3005D9E6-E2C0-4A85-93F8-D859914F2485}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{EECC2F22-E03E-4D21-9D40-ECE97FFCF23B}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{BE2C45FF-0C02-416D-9D6A-59D4421047CE}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{46837E65-12CD-4B23-8DDC-30DCA23E795E}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{AF4CEDC2-A30A-4582-92F3-98295ECDB33F}"/>
-    <hyperlink ref="E5" r:id="rId11" xr:uid="{7957BA13-5143-44DA-A9CC-7C5EA255C109}"/>
-    <hyperlink ref="E2" r:id="rId12" xr:uid="{848EFC03-EBF8-4DBA-9FBC-A0CF16B5C587}"/>
-    <hyperlink ref="E3" r:id="rId13" xr:uid="{4CA42A91-9DCD-463F-9294-35E27557CF4F}"/>
-    <hyperlink ref="E4" r:id="rId14" xr:uid="{EBC70228-3EC6-4F61-AB8F-D4DFA1C1F872}"/>
-    <hyperlink ref="E7" r:id="rId15" xr:uid="{507E3717-1785-434E-BC87-85CF5973FB88}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{BEEA9152-AE4F-4B3E-A166-B0E000FB6099}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{A0750C47-B665-4D3D-94B7-04B4BC1D3599}"/>
-    <hyperlink ref="F18" r:id="rId18" xr:uid="{B9F435C0-1CCC-4006-9172-B223DE73DAB6}"/>
-    <hyperlink ref="E18" r:id="rId19" xr:uid="{3122B064-FD03-4CA4-9C2C-AD348C384B94}"/>
-    <hyperlink ref="F8" r:id="rId20" xr:uid="{FE0E5A46-08E2-49C3-89FE-F6AEB797D697}"/>
-    <hyperlink ref="F10" r:id="rId21" xr:uid="{A08A5041-8F9F-4748-8520-1F9E37477626}"/>
-    <hyperlink ref="E19" r:id="rId22" xr:uid="{3900061B-4837-41B9-8667-02D1E18546C8}"/>
-    <hyperlink ref="E20" r:id="rId23" xr:uid="{262C6B59-D640-418C-96BF-218BC0DC90BF}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{79DCAD9F-F351-46C3-B6E9-418E9CDC4AC4}"/>
-    <hyperlink ref="F6" r:id="rId25" xr:uid="{82FD6B96-2D3C-4640-9BD5-DB0355075E71}"/>
+    <hyperlink ref="E17" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId5"/>
+    <hyperlink ref="E16" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="E5" r:id="rId11"/>
+    <hyperlink ref="E2" r:id="rId12"/>
+    <hyperlink ref="E3" r:id="rId13"/>
+    <hyperlink ref="E4" r:id="rId14"/>
+    <hyperlink ref="E7" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="F18" r:id="rId18"/>
+    <hyperlink ref="E18" r:id="rId19"/>
+    <hyperlink ref="F8" r:id="rId20"/>
+    <hyperlink ref="F10" r:id="rId21"/>
+    <hyperlink ref="E19" r:id="rId22"/>
+    <hyperlink ref="E20" r:id="rId23"/>
+    <hyperlink ref="F27" r:id="rId24"/>
+    <hyperlink ref="F6" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salón Balmaceda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/presidentes 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEC856-E73F-434A-95B7-0647586CB845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
@@ -22,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -290,9 +282,6 @@
     <t>Partido Republicano</t>
   </si>
   <si>
-    <t>PRep</t>
-  </si>
-  <si>
     <t>David Fernández</t>
   </si>
   <si>
@@ -312,12 +301,15 @@
   </si>
   <si>
     <t>Álvaro Elizalde</t>
+  </si>
+  <si>
+    <t>PREP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +374,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -694,21 +686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -728,24 +720,24 @@
         <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>37</v>
@@ -754,297 +746,297 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
@@ -1053,30 +1045,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1099,58 +1091,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>65</v>
@@ -1159,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>37</v>
@@ -1168,12 +1160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>65</v>
@@ -1181,77 +1173,77 @@
       <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>37</v>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>63</v>
+        <v>18</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>37</v>
@@ -1260,188 +1252,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition ref="C2:C31"/>
+    <sortCondition ref="D2:D31"/>
+    <sortCondition ref="B2:B31"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E15" r:id="rId5"/>
-    <hyperlink ref="E16" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E14" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="E5" r:id="rId11"/>
-    <hyperlink ref="E2" r:id="rId12"/>
-    <hyperlink ref="E3" r:id="rId13"/>
-    <hyperlink ref="E4" r:id="rId14"/>
-    <hyperlink ref="E7" r:id="rId15"/>
-    <hyperlink ref="F12" r:id="rId16"/>
-    <hyperlink ref="F13" r:id="rId17"/>
-    <hyperlink ref="F18" r:id="rId18"/>
-    <hyperlink ref="E18" r:id="rId19"/>
-    <hyperlink ref="F8" r:id="rId20"/>
-    <hyperlink ref="F10" r:id="rId21"/>
-    <hyperlink ref="E19" r:id="rId22"/>
-    <hyperlink ref="E20" r:id="rId23"/>
-    <hyperlink ref="F27" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/presidentes 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEC856-E73F-434A-95B7-0647586CB845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB6472-ED17-4012-93AF-2935239E6E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>Unidad Constituyente</t>
   </si>
   <si>
-    <t>Unidad para el Cambio</t>
-  </si>
-  <si>
     <t>Independiente</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>PREP</t>
+  </si>
+  <si>
+    <t>Chile Digno</t>
   </si>
 </sst>
 </file>
@@ -690,17 +690,17 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -720,70 +720,70 @@
         <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -792,21 +792,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>37</v>
@@ -815,58 +815,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>32</v>
@@ -875,251 +875,251 @@
         <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>57</v>
+      <c r="E12" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>85</v>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>65</v>
@@ -1128,67 +1128,67 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>65</v>
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>37</v>
@@ -1206,12 +1206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>65</v>
@@ -1219,31 +1219,31 @@
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>37</v>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>37</v>
@@ -1252,52 +1252,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>65</v>
@@ -1305,22 +1311,16 @@
       <c r="D27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>65</v>
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>37</v>
@@ -1338,12 +1338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>65</v>
@@ -1351,94 +1351,93 @@
       <c r="D29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition ref="C2:C31"/>
-    <sortCondition ref="D2:D31"/>
-    <sortCondition ref="B2:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
+    <sortCondition ref="C2:C32"/>
+    <sortCondition ref="D2:D32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB6472-ED17-4012-93AF-2935239E6E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02ADA49C-3C79-4934-B7CD-2F19AF56521F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -45,9 +45,6 @@
     <t>PS</t>
   </si>
   <si>
-    <t>Francisco Huenchumilla</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Independiente</t>
   </si>
   <si>
-    <t>Manuel Monsalve</t>
-  </si>
-  <si>
     <t>Paula Narváez</t>
   </si>
   <si>
@@ -277,12 +271,6 @@
   </si>
   <si>
     <t>Partido Republicano</t>
-  </si>
-  <si>
-    <t>David Fernández</t>
-  </si>
-  <si>
-    <t>https://www.theclinic.cl/2020/12/05/los-tres-presidenciables-la-cruzada-de-los-candidatos-improbables/</t>
   </si>
   <si>
     <t>sexo</t>
@@ -687,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,19 +716,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -751,19 +739,19 @@
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -774,19 +762,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -797,19 +785,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -820,19 +808,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -843,19 +831,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -866,19 +854,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -889,19 +877,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -912,19 +900,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -935,19 +923,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -958,19 +946,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -981,19 +969,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1004,19 +992,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1024,68 +1012,68 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1093,22 +1081,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1116,45 +1104,45 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1162,45 +1150,45 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>77</v>
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1208,22 +1196,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,22 +1219,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1254,22 +1242,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1277,22 +1259,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1300,146 +1282,82 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>37</v>
+      <c r="E28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>28</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
-    <sortCondition ref="C2:C32"/>
-    <sortCondition ref="D2:D32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
+    <sortCondition ref="C2:C29"/>
+    <sortCondition ref="D2:D29"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02ADA49C-3C79-4934-B7CD-2F19AF56521F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B4D52-BD04-44DC-B355-AD0D912EA3F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Ximena Rincón</t>
   </si>
   <si>
-    <t>René Rubeska</t>
-  </si>
-  <si>
-    <t>PNC</t>
-  </si>
-  <si>
     <t>Daniel Jadue</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>FRVS</t>
   </si>
   <si>
-    <t>José Miguel Insulza</t>
-  </si>
-  <si>
     <t>Francisco Chahuán</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t xml:space="preserve">https://www.adnradio.cl/nacional/2018/12/30/ximena-rincon-aseguro-estar-disponible-para-una-candidatura-presidencial-3844103.html </t>
   </si>
   <si>
-    <t>https://tiempo21.cl/partido-nacional-ciudadano-ya-tiene-candidato-presidencial/</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/daniel-jadue-asegura-que-esta-absolutamente-disponible-para-ser-presidente/5LTX46V4VVAE3NKHKVBOLL6BOE/</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>https://www.latercera.com/politica/noticia/nuevo-candidato-en-la-carrera-presidencial-fvrs-proclamara-a-diputado-jaime-mulet/HO4PLRIRZZGRDCF44HDKW4DXWI/</t>
   </si>
   <si>
-    <t>https://www.cnnchile.com/lodijeronencnn/5-momentos-entrevista-jose-miguel-insulza-tolerancia-cero_20200920/</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/senador-francisco-chahuan-rn-el-unico-capaz-de-ganarle-a-joaquin-lavin-soy-yo/LHN3VF3AI5AAREFXDEF6VE6VXE/</t>
   </si>
   <si>
@@ -285,13 +270,13 @@
     <t>https://www.latercera.com/politica/noticia/radicales-proclaman-a-carlos-maldonado-como-su-candidato-presidencial/CDTWMT6TIVFYRIY32KQZVG3KFE/</t>
   </si>
   <si>
-    <t>Álvaro Elizalde</t>
-  </si>
-  <si>
-    <t>PREP</t>
-  </si>
-  <si>
     <t>Chile Digno</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>REP</t>
   </si>
 </sst>
 </file>
@@ -675,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,19 +681,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,19 +701,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -739,19 +724,19 @@
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -762,19 +747,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -785,19 +770,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -808,19 +793,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -831,19 +816,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -854,19 +839,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -877,19 +862,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -900,19 +885,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -923,19 +908,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -946,19 +931,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -969,19 +954,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -992,19 +977,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,16 +1003,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1035,22 +1020,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1058,22 +1043,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1081,68 +1066,68 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1150,22 +1135,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1173,22 +1158,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,22 +1181,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1219,22 +1204,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1242,122 +1227,57 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>28</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
-    <sortCondition ref="C2:C29"/>
-    <sortCondition ref="D2:D29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+    <sortCondition ref="C2:C26"/>
+    <sortCondition ref="D2:D26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B4D52-BD04-44DC-B355-AD0D912EA3F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE03FD-23E1-4DC4-A186-88543B873098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pres2021!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pres2021!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>REP</t>
+  </si>
+  <si>
+    <t>Ignacio Briones</t>
+  </si>
+  <si>
+    <t>EVO</t>
+  </si>
+  <si>
+    <t>https://www.biobiochile.cl/noticias/nacional/chile/2021/01/17/presidenciables-oficialistas-ven-con-buenos-ojos-eventual-candidatura-de-ignacio-briones-a-la-moneda.shtml</t>
   </si>
 </sst>
 </file>
@@ -660,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,21 +753,21 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G4">
@@ -767,10 +776,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>28</v>
@@ -778,10 +787,10 @@
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G5">
@@ -790,21 +799,21 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G6">
@@ -836,33 +845,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
@@ -871,21 +880,21 @@
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
@@ -894,10 +903,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -905,21 +914,21 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G11">
@@ -928,22 +937,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -951,10 +960,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>60</v>
@@ -962,22 +971,22 @@
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>33</v>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>60</v>
@@ -985,79 +994,79 @@
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
+      <c r="E14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
       <c r="G17">
@@ -1066,10 +1075,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>59</v>
@@ -1078,44 +1087,44 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>59</v>
@@ -1124,10 +1133,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1135,10 +1144,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>59</v>
@@ -1147,10 +1156,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1167,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>59</v>
@@ -1169,8 +1178,8 @@
       <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
+      <c r="E22" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>33</v>
@@ -1181,19 +1190,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>33</v>
@@ -1204,21 +1213,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G24">
@@ -1227,10 +1236,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>59</v>
@@ -1238,13 +1247,36 @@
       <c r="D25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>28</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25">
+      <c r="F26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
@@ -1254,28 +1286,28 @@
     <sortCondition ref="D2:D26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="E2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE03FD-23E1-4DC4-A186-88543B873098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B367D-18A9-4589-A037-49AFDA2CC4BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Chile Digno</t>
-  </si>
-  <si>
-    <t>PRI</t>
   </si>
   <si>
     <t>REP</t>
@@ -672,7 +669,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,16 +753,16 @@
         <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>33</v>
@@ -831,7 +828,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>64</v>
@@ -1061,7 +1058,7 @@
         <v>75</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>36</v>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02ADA49C-3C79-4934-B7CD-2F19AF56521F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B367D-18A9-4589-A037-49AFDA2CC4BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pres2021!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pres2021!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Ximena Rincón</t>
   </si>
   <si>
-    <t>René Rubeska</t>
-  </si>
-  <si>
-    <t>PNC</t>
-  </si>
-  <si>
     <t>Daniel Jadue</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>FRVS</t>
   </si>
   <si>
-    <t>José Miguel Insulza</t>
-  </si>
-  <si>
     <t>Francisco Chahuán</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t xml:space="preserve">https://www.adnradio.cl/nacional/2018/12/30/ximena-rincon-aseguro-estar-disponible-para-una-candidatura-presidencial-3844103.html </t>
   </si>
   <si>
-    <t>https://tiempo21.cl/partido-nacional-ciudadano-ya-tiene-candidato-presidencial/</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/daniel-jadue-asegura-que-esta-absolutamente-disponible-para-ser-presidente/5LTX46V4VVAE3NKHKVBOLL6BOE/</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>https://www.latercera.com/politica/noticia/nuevo-candidato-en-la-carrera-presidencial-fvrs-proclamara-a-diputado-jaime-mulet/HO4PLRIRZZGRDCF44HDKW4DXWI/</t>
   </si>
   <si>
-    <t>https://www.cnnchile.com/lodijeronencnn/5-momentos-entrevista-jose-miguel-insulza-tolerancia-cero_20200920/</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/senador-francisco-chahuan-rn-el-unico-capaz-de-ganarle-a-joaquin-lavin-soy-yo/LHN3VF3AI5AAREFXDEF6VE6VXE/</t>
   </si>
   <si>
@@ -285,13 +270,19 @@
     <t>https://www.latercera.com/politica/noticia/radicales-proclaman-a-carlos-maldonado-como-su-candidato-presidencial/CDTWMT6TIVFYRIY32KQZVG3KFE/</t>
   </si>
   <si>
-    <t>Álvaro Elizalde</t>
-  </si>
-  <si>
-    <t>PREP</t>
-  </si>
-  <si>
     <t>Chile Digno</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>Ignacio Briones</t>
+  </si>
+  <si>
+    <t>EVO</t>
+  </si>
+  <si>
+    <t>https://www.biobiochile.cl/noticias/nacional/chile/2021/01/17/presidenciables-oficialistas-ven-con-buenos-ojos-eventual-candidatura-de-ignacio-briones-a-la-moneda.shtml</t>
   </si>
 </sst>
 </file>
@@ -675,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,19 +687,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,19 +707,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -739,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -759,22 +750,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -782,22 +773,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -805,22 +796,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -831,19 +822,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -851,68 +842,68 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -920,22 +911,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -943,22 +934,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -966,94 +957,94 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,16 +1055,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1084,19 +1075,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1110,16 +1101,16 @@
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1130,19 +1121,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1153,19 +1144,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1176,19 +1167,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,19 +1190,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1222,19 +1213,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1242,122 +1233,80 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>36</v>
+      <c r="E26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>28</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
-    <sortCondition ref="C2:C29"/>
-    <sortCondition ref="D2:D29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+    <sortCondition ref="C2:C26"/>
+    <sortCondition ref="D2:D26"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B367D-18A9-4589-A037-49AFDA2CC4BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC07D01-0D04-447C-8C93-36B81D3EBDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -105,9 +105,6 @@
     <t>RN</t>
   </si>
   <si>
-    <t>Alberto Undurraga</t>
-  </si>
-  <si>
     <t>Cristián Contreras (Dr. File)</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Chile Vamos</t>
   </si>
   <si>
-    <t>Ricardo Lagos Weber</t>
-  </si>
-  <si>
     <t>fuente</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>https://www.latercera.com/politica/noticia/senador-francisco-chahuan-rn-el-unico-capaz-de-ganarle-a-joaquin-lavin-soy-yo/LHN3VF3AI5AAREFXDEF6VE6VXE/</t>
   </si>
   <si>
-    <t>https://www.latercera.com/la-tercera-pm/noticia/uno-mas-a-la-lista-el-dc-alberto-undurraga-lanza-su-candidatura-presidencial/D4IUHYD3RRCQXHL7GDO4LXOYUM/</t>
-  </si>
-  <si>
     <t>https://www.lacuarta.com/espectaculos/noticia/dr-file-quiero-proximo-presidente-chile/550493/</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>https://www.latercera.com/politica/noticia/francisco-vidal-ppd-confirma-su-candidatura-presidencial-la-lanzare-despues-del-domingo/IDA64H7QGVGKRLPGYM63G4G5NU/?outputType=amp</t>
   </si>
   <si>
-    <t>https://www.elmostrador.cl/noticias/pais/2018/10/11/lagos-weber-aseguro-estar-disponible-para-ser-candidato-presidencial-en-2021/</t>
-  </si>
-  <si>
     <t>https://www.cooperativa.cl/noticias/pais/politica/presidenciales/montes-suma-a-monsalve-y-narvaez-a-la-carrera-presidencial-ps/2019-08-12/200902.html</t>
   </si>
   <si>
@@ -283,6 +271,9 @@
   </si>
   <si>
     <t>https://www.biobiochile.cl/noticias/nacional/chile/2021/01/17/presidenciables-oficialistas-ven-con-buenos-ojos-eventual-candidatura-de-ignacio-briones-a-la-moneda.shtml</t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/noticias/multimedia/2021/01/26/los-aplausos-en-la-moneda-en-la-despedida-del-ahora-precandidato-presidencial-ignacio-briones/</t>
   </si>
 </sst>
 </file>
@@ -335,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -351,6 +342,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -666,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,39 +679,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -727,22 +719,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -750,22 +742,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -779,16 +771,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,19 +791,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -819,22 +811,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>33</v>
+      <c r="E7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -842,22 +834,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -871,16 +863,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -894,16 +886,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -917,16 +909,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -937,19 +929,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -960,19 +952,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -983,19 +975,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1006,19 +998,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1026,22 +1018,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1049,22 +1041,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1072,68 +1064,68 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1141,22 +1133,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,22 +1156,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1187,22 +1179,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1210,70 +1202,24 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>27</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>28</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26">
         <v>1</v>
       </c>
     </row>
@@ -1283,28 +1229,28 @@
     <sortCondition ref="D2:D26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F4" r:id="rId22" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC07D01-0D04-447C-8C93-36B81D3EBDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E112DFAF-0DBF-4673-A1DE-74C664658398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -39,9 +39,6 @@
     <t>partido</t>
   </si>
   <si>
-    <t>Máximo Pacheco</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>FRVS</t>
   </si>
   <si>
-    <t>Francisco Chahuán</t>
-  </si>
-  <si>
     <t>RN</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>fuente2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.latercera.com/politica/noticia/maximo-pacheco-francisco-huenchumilla-la-cancha-presidencial/393717/ </t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
   </si>
   <si>
     <t>https://www.latercera.com/politica/noticia/nuevo-candidato-en-la-carrera-presidencial-fvrs-proclamara-a-diputado-jaime-mulet/HO4PLRIRZZGRDCF44HDKW4DXWI/</t>
-  </si>
-  <si>
-    <t>https://www.latercera.com/politica/noticia/senador-francisco-chahuan-rn-el-unico-capaz-de-ganarle-a-joaquin-lavin-soy-yo/LHN3VF3AI5AAREFXDEF6VE6VXE/</t>
   </si>
   <si>
     <t>https://www.lacuarta.com/espectaculos/noticia/dr-file-quiero-proximo-presidente-chile/550493/</t>
@@ -658,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,39 +667,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -719,22 +707,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -742,22 +730,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -768,19 +756,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -791,19 +779,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -814,19 +802,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -837,22 +825,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,22 +848,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,19 +871,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -906,19 +894,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -929,19 +917,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -952,22 +940,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,22 +963,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,22 +986,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,22 +1009,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,22 +1055,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,19 +1078,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1113,19 +1101,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1136,19 +1124,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1159,100 +1147,52 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
-    <sortCondition ref="C2:C26"/>
-    <sortCondition ref="D2:D26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+    <sortCondition ref="C2:C24"/>
+    <sortCondition ref="D2:D24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F4" r:id="rId22" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F4" r:id="rId20" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E112DFAF-0DBF-4673-A1DE-74C664658398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC925AE3-2A4E-4199-985C-6770A054A74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -63,9 +63,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>Rodolfo Carter</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>UDI</t>
   </si>
   <si>
-    <t>Iván Moreira</t>
-  </si>
-  <si>
     <t>Evelyn Matthei</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>https://www.youtube.com/watch?v=M4A6ftOiib8&amp;feature=emb_title&amp;ab_channel=ConversandoenCasa</t>
   </si>
   <si>
-    <t>https://www.elmostrador.cl/noticias/multimedia/2020/07/29/rodolfo-carter-se-postula-como-carta-presidencial-de-chile-vamos-tenemos-que-ser-gobernado-por-alguien-de-clase-media/</t>
-  </si>
-  <si>
     <t>https://www.elmostrador.cl/dia/2020/08/22/heraldo-munoz-por-candidatura-presidencial-no-lo-descarto-no-lo-puedo-descartar/</t>
   </si>
   <si>
@@ -145,12 +136,6 @@
   </si>
   <si>
     <t>https://www.cnnchile.com/lodijeronencnn/lavin-elecciones-presidenciales-futuro-gobierno-mirada-amplia_20200824/</t>
-  </si>
-  <si>
-    <t>https://www.elmostrador.cl/dia/2020/08/26/ivan-moreira-si-joaquin-lavin-y-evelyn-matthei-no-se-ponen-de-acuerdo-yo-estoy-disponible-para-una-candidatura-presidencial/</t>
-  </si>
-  <si>
-    <t>https://www.lacuarta.com/cronica/noticia/ivan-moreira-estoy-disponible-candidato/538428/</t>
   </si>
   <si>
     <t>https://www.cnnchile.com/pais/evelyn-matthei-candidata-presidencia_20200829/</t>
@@ -646,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,39 +652,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -707,22 +692,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -730,22 +715,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -753,22 +738,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -776,22 +761,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -799,68 +784,68 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -868,22 +853,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -891,45 +876,45 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -937,21 +922,21 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G13">
@@ -960,22 +945,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -983,22 +968,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1006,22 +991,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1029,45 +1014,45 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1075,22 +1060,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1098,101 +1083,52 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
-    <sortCondition ref="C2:C24"/>
-    <sortCondition ref="D2:D24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
+    <sortCondition ref="C2:C22"/>
+    <sortCondition ref="D2:D22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F4" r:id="rId20" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC925AE3-2A4E-4199-985C-6770A054A74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864C21B-FAD3-4C12-95EE-667D9A0D63AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>https://www.elmostrador.cl/noticias/multimedia/2021/01/26/los-aplausos-en-la-moneda-en-la-despedida-del-ahora-precandidato-presidencial-ignacio-briones/</t>
+  </si>
+  <si>
+    <t>Partido Humanista</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864C21B-FAD3-4C12-95EE-667D9A0D63AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A25712-74B5-407F-A503-1761D636F381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -66,9 +66,6 @@
     <t>IND</t>
   </si>
   <si>
-    <t>Francisco Vidal</t>
-  </si>
-  <si>
     <t>PPD</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Cristián Contreras (Dr. File)</t>
   </si>
   <si>
-    <t>Jorge Tarud</t>
-  </si>
-  <si>
     <t>Chile Vamos</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t xml:space="preserve">https://www.publimetro.cl/cl/entretenimiento/2020/10/01/dr-file-anuncia-carrera-presidencial-quiero-proximo-presidente-chile.html </t>
   </si>
   <si>
-    <t>https://www.latercera.com/politica/noticia/francisco-vidal-ppd-confirma-su-candidatura-presidencial-la-lanzare-despues-del-domingo/IDA64H7QGVGKRLPGYM63G4G5NU/?outputType=amp</t>
-  </si>
-  <si>
     <t>https://www.cooperativa.cl/noticias/pais/politica/presidenciales/montes-suma-a-monsalve-y-narvaez-a-la-carrera-presidencial-ps/2019-08-12/200902.html</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
   </si>
   <si>
     <t>Paula Narváez</t>
-  </si>
-  <si>
-    <t>https://twitter.com/JorgeTarud/status/1321389697441144832</t>
   </si>
   <si>
     <t>Mario Desbordes</t>
@@ -634,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,19 +663,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -701,16 +689,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -721,19 +709,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -744,19 +732,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -767,19 +755,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -790,19 +778,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -813,19 +801,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -836,19 +824,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -859,19 +847,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -882,19 +870,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -905,19 +893,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -931,16 +919,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -954,16 +942,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -977,16 +965,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -997,19 +985,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1020,19 +1008,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1043,74 +1031,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
-    <sortCondition ref="C2:C22"/>
-    <sortCondition ref="D2:D22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
+    <sortCondition ref="C2:C20"/>
+    <sortCondition ref="D2:D20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -1124,14 +1066,12 @@
     <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F4" r:id="rId17" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F4" r:id="rId15" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC925AE3-2A4E-4199-985C-6770A054A74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A25712-74B5-407F-A503-1761D636F381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -66,9 +66,6 @@
     <t>IND</t>
   </si>
   <si>
-    <t>Francisco Vidal</t>
-  </si>
-  <si>
     <t>PPD</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Cristián Contreras (Dr. File)</t>
   </si>
   <si>
-    <t>Jorge Tarud</t>
-  </si>
-  <si>
     <t>Chile Vamos</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t xml:space="preserve">https://www.publimetro.cl/cl/entretenimiento/2020/10/01/dr-file-anuncia-carrera-presidencial-quiero-proximo-presidente-chile.html </t>
   </si>
   <si>
-    <t>https://www.latercera.com/politica/noticia/francisco-vidal-ppd-confirma-su-candidatura-presidencial-la-lanzare-despues-del-domingo/IDA64H7QGVGKRLPGYM63G4G5NU/?outputType=amp</t>
-  </si>
-  <si>
     <t>https://www.cooperativa.cl/noticias/pais/politica/presidenciales/montes-suma-a-monsalve-y-narvaez-a-la-carrera-presidencial-ps/2019-08-12/200902.html</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Paula Narváez</t>
   </si>
   <si>
-    <t>https://twitter.com/JorgeTarud/status/1321389697441144832</t>
-  </si>
-  <si>
     <t>Mario Desbordes</t>
   </si>
   <si>
@@ -247,6 +235,9 @@
   </si>
   <si>
     <t>https://www.elmostrador.cl/noticias/multimedia/2021/01/26/los-aplausos-en-la-moneda-en-la-despedida-del-ahora-precandidato-presidencial-ignacio-briones/</t>
+  </si>
+  <si>
+    <t>Partido Humanista</t>
   </si>
 </sst>
 </file>
@@ -631,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,19 +663,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -698,16 +689,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -718,19 +709,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -741,19 +732,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -764,19 +755,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -787,19 +778,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -810,19 +801,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -833,19 +824,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -856,19 +847,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -879,19 +870,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -902,19 +893,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -928,16 +919,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -951,16 +942,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -974,16 +965,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -994,19 +985,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1017,19 +1008,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1040,74 +1031,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
-    <sortCondition ref="C2:C22"/>
-    <sortCondition ref="D2:D22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
+    <sortCondition ref="C2:C20"/>
+    <sortCondition ref="D2:D20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -1121,14 +1066,12 @@
     <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F4" r:id="rId17" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F4" r:id="rId15" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A25712-74B5-407F-A503-1761D636F381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BF8B0-1378-4515-889D-835A65819DDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -238,6 +238,21 @@
   </si>
   <si>
     <t>Partido Humanista</t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/dia/2021/01/21/senador-latorre-asegura-que-si-su-nombre-genera-consenso-en-rd-y-el-fa-esta-disponible-para-la-presidencial/</t>
+  </si>
+  <si>
+    <t>Juan Ignacio Latorre</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Tomás Jocelyn-Holt</t>
+  </si>
+  <si>
+    <t>https://twitter.com/tjholt/status/1354195351251558400/photo/1</t>
   </si>
 </sst>
 </file>
@@ -622,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,21 +836,21 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9">
@@ -844,22 +859,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -867,10 +882,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>44</v>
@@ -878,22 +893,22 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>44</v>
@@ -901,56 +916,56 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G14">
@@ -959,22 +974,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -982,22 +997,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1005,47 +1020,93 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>1</v>
       </c>
     </row>
@@ -1059,16 +1120,16 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="F4" r:id="rId15" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BF8B0-1378-4515-889D-835A65819DDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4951721A-618C-4434-8671-77E0A2FDEBF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>https://twitter.com/tjholt/status/1354195351251558400/photo/1</t>
+  </si>
+  <si>
+    <t>Gabriel Boric</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>https://www.cnnchile.com/pais/gabriel-boric-candidato-presidencial-frente-amplio_20210317/</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/politica/noticia/convergencia-social-proclama-a-gabriel-boric-como-precandidato-presidencial/E4Z3B6W7ZBB67GJ3T7TWQWJ4SE/</t>
   </si>
 </sst>
 </file>
@@ -637,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,22 +848,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -862,18 +874,18 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10">
@@ -885,19 +897,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -908,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>44</v>
@@ -916,14 +928,14 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>44</v>
@@ -939,22 +951,22 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -962,11 +974,11 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>24</v>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -974,114 +986,114 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1089,50 +1101,75 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
-    <sortCondition ref="C2:C20"/>
-    <sortCondition ref="D2:D20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="C2:C21"/>
+    <sortCondition ref="D2:D21"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="F4" r:id="rId15" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4951721A-618C-4434-8671-77E0A2FDEBF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B6B78-B373-4DF6-9F30-FB9039DF3C9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -240,15 +240,6 @@
     <t>Partido Humanista</t>
   </si>
   <si>
-    <t>https://www.elmostrador.cl/dia/2021/01/21/senador-latorre-asegura-que-si-su-nombre-genera-consenso-en-rd-y-el-fa-esta-disponible-para-la-presidencial/</t>
-  </si>
-  <si>
-    <t>Juan Ignacio Latorre</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
     <t>Tomás Jocelyn-Holt</t>
   </si>
   <si>
@@ -265,6 +256,18 @@
   </si>
   <si>
     <t>https://www.latercera.com/politica/noticia/convergencia-social-proclama-a-gabriel-boric-como-precandidato-presidencial/E4Z3B6W7ZBB67GJ3T7TWQWJ4SE/</t>
+  </si>
+  <si>
+    <t>Pablo Vidal</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>https://www.ex-ante.cl/15-cosas-sobre-pablo-vidal-quien-se-suma-hoy-a-la-lista-de-10-candidatos-presidenciales-de-la-oposicion/</t>
+  </si>
+  <si>
+    <t>https://www.concierto.cl/2021/03/marcelo-diaz-precandidato-presidencial-el-fa-tiene-que-decidir-con-quien-ira-a-primarias/</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,22 +851,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -871,22 +874,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -894,22 +897,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -917,10 +920,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>44</v>
@@ -928,22 +931,22 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>44</v>
@@ -951,22 +954,22 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -974,11 +977,11 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -986,114 +989,114 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1101,70 +1104,70 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
-    <sortCondition ref="C2:C21"/>
-    <sortCondition ref="D2:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
+    <sortCondition ref="C2:C20"/>
+    <sortCondition ref="D2:D20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="F4" r:id="rId15" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
     <hyperlink ref="E9" r:id="rId16" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
     <hyperlink ref="F9" r:id="rId17" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B6B78-B373-4DF6-9F30-FB9039DF3C9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4868B-BB82-49F1-B0AB-55846AF5A4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>https://www.concierto.cl/2021/03/marcelo-diaz-precandidato-presidencial-el-fa-tiene-que-decidir-con-quien-ira-a-primarias/</t>
+  </si>
+  <si>
+    <t>Eduardo Artés</t>
+  </si>
+  <si>
+    <t>Unión Patriótica</t>
+  </si>
+  <si>
+    <t>UPA</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/la-tercera-pm/noticia/artes-mulet-y-me-o-los-otros-candidatos-presidenciales-de-la-oposicion/RLHFQHI27BABNGODECRWPYCO3U/</t>
   </si>
 </sst>
 </file>
@@ -652,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,6 +1157,29 @@
         <v>24</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
         <v>0</v>
       </c>
     </row>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4951721A-618C-4434-8671-77E0A2FDEBF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4868B-BB82-49F1-B0AB-55846AF5A4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -240,15 +240,6 @@
     <t>Partido Humanista</t>
   </si>
   <si>
-    <t>https://www.elmostrador.cl/dia/2021/01/21/senador-latorre-asegura-que-si-su-nombre-genera-consenso-en-rd-y-el-fa-esta-disponible-para-la-presidencial/</t>
-  </si>
-  <si>
-    <t>Juan Ignacio Latorre</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
     <t>Tomás Jocelyn-Holt</t>
   </si>
   <si>
@@ -265,6 +256,30 @@
   </si>
   <si>
     <t>https://www.latercera.com/politica/noticia/convergencia-social-proclama-a-gabriel-boric-como-precandidato-presidencial/E4Z3B6W7ZBB67GJ3T7TWQWJ4SE/</t>
+  </si>
+  <si>
+    <t>Pablo Vidal</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>https://www.ex-ante.cl/15-cosas-sobre-pablo-vidal-quien-se-suma-hoy-a-la-lista-de-10-candidatos-presidenciales-de-la-oposicion/</t>
+  </si>
+  <si>
+    <t>https://www.concierto.cl/2021/03/marcelo-diaz-precandidato-presidencial-el-fa-tiene-que-decidir-con-quien-ira-a-primarias/</t>
+  </si>
+  <si>
+    <t>Eduardo Artés</t>
+  </si>
+  <si>
+    <t>Unión Patriótica</t>
+  </si>
+  <si>
+    <t>UPA</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/la-tercera-pm/noticia/artes-mulet-y-me-o-los-otros-candidatos-presidenciales-de-la-oposicion/RLHFQHI27BABNGODECRWPYCO3U/</t>
   </si>
 </sst>
 </file>
@@ -649,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,22 +863,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -871,22 +886,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -894,22 +909,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -917,10 +932,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>44</v>
@@ -928,22 +943,22 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>44</v>
@@ -951,22 +966,22 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -974,11 +989,11 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -986,114 +1001,114 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1101,70 +1116,93 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
-    <sortCondition ref="C2:C21"/>
-    <sortCondition ref="D2:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
+    <sortCondition ref="C2:C20"/>
+    <sortCondition ref="D2:D20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="F4" r:id="rId15" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
     <hyperlink ref="E9" r:id="rId16" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
     <hyperlink ref="F9" r:id="rId17" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>

--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4868B-BB82-49F1-B0AB-55846AF5A4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63638A4A-834F-42A8-B77F-9B37E3F5E7D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20475" yWindow="585" windowWidth="15375" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -78,9 +78,6 @@
     <t>UDI</t>
   </si>
   <si>
-    <t>Evelyn Matthei</t>
-  </si>
-  <si>
     <t>Jaime Mulet</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
     <t>https://www.cnnchile.com/lodijeronencnn/lavin-elecciones-presidenciales-futuro-gobierno-mirada-amplia_20200824/</t>
   </si>
   <si>
-    <t>https://www.cnnchile.com/pais/evelyn-matthei-candidata-presidencia_20200829/</t>
-  </si>
-  <si>
-    <t>https://www.lun.com/Pages/NewsDetail.aspx?dt=2020-08-30&amp;NewsID=456360&amp;BodyID=0&amp;PaginaId=10</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/nuevo-candidato-en-la-carrera-presidencial-fvrs-proclamara-a-diputado-jaime-mulet/HO4PLRIRZZGRDCF44HDKW4DXWI/</t>
   </si>
   <si>
@@ -192,18 +183,9 @@
     <t>https://www.publimetro.cl/cl/noticias/2020/11/02/ximena-rincon-candidatura-presidencial.html</t>
   </si>
   <si>
-    <t>Marcelo Díaz</t>
-  </si>
-  <si>
-    <t>Unir</t>
-  </si>
-  <si>
     <t>Frente Amplio</t>
   </si>
   <si>
-    <t>https://www.eldinamo.cl/nacional/2020/11/23/diputado-marcelo-diaz-confirma-candidatura-presidencial-por-el-frente-amplio/</t>
-  </si>
-  <si>
     <t>Partido Republicano</t>
   </si>
   <si>
@@ -256,18 +238,6 @@
   </si>
   <si>
     <t>https://www.latercera.com/politica/noticia/convergencia-social-proclama-a-gabriel-boric-como-precandidato-presidencial/E4Z3B6W7ZBB67GJ3T7TWQWJ4SE/</t>
-  </si>
-  <si>
-    <t>Pablo Vidal</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>https://www.ex-ante.cl/15-cosas-sobre-pablo-vidal-quien-se-suma-hoy-a-la-lista-de-10-candidatos-presidenciales-de-la-oposicion/</t>
-  </si>
-  <si>
-    <t>https://www.concierto.cl/2021/03/marcelo-diaz-precandidato-presidencial-el-fa-tiene-que-decidir-con-quien-ira-a-primarias/</t>
   </si>
   <si>
     <t>Eduardo Artés</t>
@@ -664,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,19 +655,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,19 +675,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -731,16 +701,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -751,19 +721,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -774,19 +744,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -797,19 +767,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -820,22 +790,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,19 +813,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -866,19 +836,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -889,22 +859,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,19 +882,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>51</v>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -935,22 +905,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -958,22 +928,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,19 +951,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1004,19 +974,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1027,19 +997,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1050,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,22 +1043,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,118 +1066,47 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
-    <sortCondition ref="C2:C20"/>
-    <sortCondition ref="D2:D20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+    <sortCondition ref="C2:C18"/>
+    <sortCondition ref="D2:D18"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F4" r:id="rId15" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
-    <hyperlink ref="F9" r:id="rId17" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63638A4A-834F-42A8-B77F-9B37E3F5E7D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18338DC-F2C3-462C-A6D1-E304EB5D3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20475" yWindow="585" windowWidth="15375" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -42,9 +42,6 @@
     <t>PS</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>Pamela Jiles</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>José Antonio Kast</t>
   </si>
   <si>
-    <t>Ximena Rincón</t>
-  </si>
-  <si>
     <t>Daniel Jadue</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>IND</t>
   </si>
   <si>
-    <t>PPD</t>
-  </si>
-  <si>
-    <t>Heraldo Muñoz</t>
-  </si>
-  <si>
     <t>Joaquín Lavín</t>
   </si>
   <si>
@@ -111,21 +99,12 @@
     <t>https://www.biobiochile.cl/noticias/nacional/chile/2018/12/16/jose-antonio-kast-anuncia-carrera-presidencial-para-elecciones-de-2021-en-medio-de-seminario.shtml</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.adnradio.cl/nacional/2018/12/30/ximena-rincon-aseguro-estar-disponible-para-una-candidatura-presidencial-3844103.html </t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/daniel-jadue-asegura-que-esta-absolutamente-disponible-para-ser-presidente/5LTX46V4VVAE3NKHKVBOLL6BOE/</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=M4A6ftOiib8&amp;feature=emb_title&amp;ab_channel=ConversandoenCasa</t>
   </si>
   <si>
-    <t>https://www.elmostrador.cl/dia/2020/08/22/heraldo-munoz-por-candidatura-presidencial-no-lo-descarto-no-lo-puedo-descartar/</t>
-  </si>
-  <si>
-    <t>https://www.radioagricultura.cl/politica/2020/08/21/heraldo-munoz-le-abre-la-puerta-a-una-posible-candidatura-presidencial-lo-vere-pronto-llegara-la-hora-de-tomar-una-decision.html</t>
-  </si>
-  <si>
     <t>https://www.cnnchile.com/lodijeronencnn/lavin-elecciones-presidenciales-futuro-gobierno-mirada-amplia_20200824/</t>
   </si>
   <si>
@@ -180,12 +159,6 @@
     <t>https://www.adnradio.cl/politica/2020/10/29/economista-y-exgerente-de-desaparecida-linea-law-se-lanza-como-candidato-presidencial.html</t>
   </si>
   <si>
-    <t>https://www.publimetro.cl/cl/noticias/2020/11/02/ximena-rincon-candidatura-presidencial.html</t>
-  </si>
-  <si>
-    <t>Frente Amplio</t>
-  </si>
-  <si>
     <t>Partido Republicano</t>
   </si>
   <si>
@@ -201,9 +174,6 @@
     <t>https://www.latercera.com/politica/noticia/radicales-proclaman-a-carlos-maldonado-como-su-candidato-presidencial/CDTWMT6TIVFYRIY32KQZVG3KFE/</t>
   </si>
   <si>
-    <t>Chile Digno</t>
-  </si>
-  <si>
     <t>REP</t>
   </si>
   <si>
@@ -250,6 +220,9 @@
   </si>
   <si>
     <t>https://www.latercera.com/la-tercera-pm/noticia/artes-mulet-y-me-o-los-otros-candidatos-presidenciales-de-la-oposicion/RLHFQHI27BABNGODECRWPYCO3U/</t>
+  </si>
+  <si>
+    <t>Apruebo Dignidad</t>
   </si>
 </sst>
 </file>
@@ -634,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,19 +628,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,19 +648,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -698,19 +671,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -721,19 +694,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -744,19 +717,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -767,19 +740,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -790,19 +763,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -813,19 +786,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -836,19 +809,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -859,19 +832,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -882,19 +855,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -905,19 +878,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -928,19 +901,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -951,19 +924,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -974,22 +947,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,22 +970,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1020,93 +993,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-    <sortCondition ref="C2:C18"/>
-    <sortCondition ref="D2:D18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="C2:C16"/>
+    <sortCondition ref="D2:D16"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F4" r:id="rId13" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
-    <hyperlink ref="F8" r:id="rId15" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F4" r:id="rId10" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18338DC-F2C3-462C-A6D1-E304EB5D3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CDEFF0-DE1D-4B65-96BF-1F911754B39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -66,12 +66,6 @@
     <t>UDI</t>
   </si>
   <si>
-    <t>Jaime Mulet</t>
-  </si>
-  <si>
-    <t>FRVS</t>
-  </si>
-  <si>
     <t>RN</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
   </si>
   <si>
     <t>https://www.cnnchile.com/lodijeronencnn/lavin-elecciones-presidenciales-futuro-gobierno-mirada-amplia_20200824/</t>
-  </si>
-  <si>
-    <t>https://www.latercera.com/politica/noticia/nuevo-candidato-en-la-carrera-presidencial-fvrs-proclamara-a-diputado-jaime-mulet/HO4PLRIRZZGRDCF44HDKW4DXWI/</t>
   </si>
   <si>
     <t>https://www.lacuarta.com/espectaculos/noticia/dr-file-quiero-proximo-presidente-chile/550493/</t>
@@ -607,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,39 +619,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -668,22 +659,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -691,22 +682,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -714,22 +705,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -737,22 +728,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -760,22 +751,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -786,19 +777,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -809,22 +800,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -832,22 +823,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,19 +846,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -878,22 +869,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -901,22 +892,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
+      <c r="F13" t="s">
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,19 +915,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -947,22 +938,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,44 +961,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17">
         <v>0</v>
       </c>
     </row>
@@ -1019,18 +987,17 @@
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F4" r:id="rId10" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
-    <hyperlink ref="E8" r:id="rId11" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
-    <hyperlink ref="F8" r:id="rId12" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{2C29B2B1-3803-4F37-BDE7-EB2640DAF0CE}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{C3F79AAC-FDD8-49F9-B218-4A0C0657BA40}"/>
+    <hyperlink ref="F2" r:id="rId11" xr:uid="{9D78931C-C358-46F1-A4EE-8C7C6F4C1CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/presidentes 2021/pres2021.xlsx
+++ b/presidentes 2021/pres2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\presidentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CDEFF0-DE1D-4B65-96BF-1F911754B39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902DBA27-990C-4401-83AF-7C592517B60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20460" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pres2021" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Apruebo Dignidad</t>
+  </si>
+  <si>
+    <t>Diego Ancalao</t>
+  </si>
+  <si>
+    <t>https://ellibero.cl/actualidad/ancalao-la-otra-carta-presidencial-para-la-lista-del-pueblo/?mc_cid=fd4ab4e2fa&amp;mc_eid=1c664a6593</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,67 +872,67 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14">
@@ -935,60 +941,83 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-    <sortCondition ref="C2:C16"/>
-    <sortCondition ref="D2:D16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+    <sortCondition ref="C2:C17"/>
+    <sortCondition ref="D2:D17"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
